--- a/NformTester/NformTester/Keywordscripts/600.30.30.50_CopyAnExistingAreaAndCreateNewAreaInTheTreeOfView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.50_CopyAnExistingAreaAndCreateNewAreaInTheTreeOfView.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7550" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7568" uniqueCount="850">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3700,10 +3700,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\user\samples\floor1.png"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Test link"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3716,10 +3712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"C:\Nform\user\samples\floor2.png"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"My link"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3820,6 +3812,22 @@
   <si>
     <t>$Delete_File_Path_2$</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Delete_File_Path$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sys_Image_File_Name$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sys_Image_File_Name_2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4069,21 +4077,7 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -4892,10 +4886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4913,10 +4907,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>757</v>
@@ -4958,10 +4952,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="16" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -4983,33 +4977,27 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="16" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>780</v>
+        <v>842</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>764</v>
+        <v>847</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>783</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -5018,26 +5006,24 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="16" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>801</v>
+        <v>842</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>846</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -5047,9 +5033,9 @@
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="16" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B5" s="20">
         <v>41754</v>
@@ -5057,37 +5043,53 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>764</v>
+      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>783</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:15">
       <c r="A6" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="D6" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -5102,13 +5104,13 @@
         <v>765</v>
       </c>
       <c r="B7" s="18">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>789</v>
+        <v>814</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5122,55 +5124,39 @@
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>792</v>
-      </c>
+      <c r="D8" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="N8" s="9"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="16" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -5181,7 +5167,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="8"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
@@ -5195,51 +5181,55 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>19</v>
+        <v>791</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="8"/>
+        <v>792</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="N10" s="9"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" ht="15">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
+      <c r="D11" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15">
@@ -5250,25 +5240,25 @@
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
+      <c r="D12" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15">
@@ -5283,17 +5273,15 @@
         <v>785</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>626</v>
+        <v>19</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>805</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -5311,20 +5299,18 @@
         <v>13</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>804</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -5348,13 +5334,15 @@
         <v>626</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -5371,21 +5359,21 @@
         <v>15</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>804</v>
+      </c>
+      <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -5405,18 +5393,16 @@
         <v>785</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="I17" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -5439,15 +5425,15 @@
         <v>635</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>636</v>
+        <v>256</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>817</v>
-      </c>
-      <c r="I18" s="11"/>
+        <v>803</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -5470,12 +5456,14 @@
         <v>635</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>804</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -5498,15 +5486,17 @@
         <v>785</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>183</v>
+        <v>636</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>848</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -5527,17 +5517,15 @@
         <v>785</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>818</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" s="7"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -5546,7 +5534,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="16" t="s">
         <v>778</v>
       </c>
@@ -5561,14 +5549,12 @@
         <v>555</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>527</v>
+        <v>183</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>819</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" s="7"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -5588,12 +5574,14 @@
         <v>555</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>556</v>
+        <v>256</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>817</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -5602,7 +5590,7 @@
       <c r="N23" s="12"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="14.25">
       <c r="C24" s="3">
         <v>23</v>
       </c>
@@ -5613,12 +5601,14 @@
         <v>555</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>17</v>
+        <v>527</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>818</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -5635,10 +5625,10 @@
         <v>785</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>635</v>
+        <v>555</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>17</v>
+        <v>556</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>2</v>
@@ -5660,17 +5650,15 @@
         <v>785</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>626</v>
+        <v>555</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>628</v>
+        <v>17</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>795</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" s="7"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -5687,10 +5675,10 @@
         <v>785</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>633</v>
+        <v>17</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>2</v>
@@ -5715,12 +5703,14 @@
         <v>626</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>795</v>
+      </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -5740,12 +5730,12 @@
         <v>626</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>17</v>
+        <v>633</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="7"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11"/>
@@ -5762,10 +5752,10 @@
         <v>785</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>99</v>
+        <v>631</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>2</v>
@@ -5779,17 +5769,23 @@
       <c r="N30" s="12"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="15">
+    <row r="31" spans="1:15">
       <c r="C31" s="3">
         <v>30</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="7"/>
+      <c r="D31" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
@@ -5805,11 +5801,11 @@
       <c r="D32" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>19</v>
+      <c r="E32" s="11" t="s">
+        <v>623</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>2</v>
@@ -5823,22 +5819,16 @@
       <c r="N32" s="12"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" ht="15">
       <c r="C33" s="3">
         <v>32</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="D33" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="7"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -5856,18 +5846,16 @@
         <v>785</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="I34" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
@@ -5883,10 +5871,10 @@
         <v>785</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>244</v>
+        <v>81</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>2</v>
@@ -5908,16 +5896,16 @@
         <v>785</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="11"/>
@@ -5935,16 +5923,16 @@
         <v>785</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
@@ -5957,16 +5945,20 @@
         <v>37</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>809</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="F38" s="11">
-        <v>5</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="7"/>
+        <v>785</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>808</v>
+      </c>
       <c r="I38" s="7"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
@@ -5982,8 +5974,8 @@
       <c r="D39" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>277</v>
+      <c r="E39" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>17</v>
@@ -6005,17 +5997,15 @@
         <v>39</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>2</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="F40" s="11">
+        <v>5</v>
+      </c>
+      <c r="G40" s="11"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="11"/>
@@ -6025,16 +6015,22 @@
       <c r="N40" s="12"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="3:15" ht="15">
+    <row r="41" spans="3:15">
       <c r="C41" s="3">
         <v>40</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="D41" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="11"/>
@@ -6048,45 +6044,39 @@
       <c r="C42" s="3">
         <v>41</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>788</v>
+      <c r="D42" s="10" t="s">
+        <v>785</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="8"/>
+        <v>241</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="12"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="3:15">
+    <row r="43" spans="3:15" ht="15">
       <c r="C43" s="3">
         <v>42</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="D43" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
@@ -6098,27 +6088,25 @@
       <c r="C44" s="3">
         <v>43</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>624</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>805</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="12"/>
+      <c r="D44" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="8"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="3:15">
@@ -6129,15 +6117,15 @@
         <v>785</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
@@ -6154,20 +6142,18 @@
         <v>785</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="7">
-        <v>2</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>803</v>
-      </c>
+      <c r="H46" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="I46" s="7"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
@@ -6183,10 +6169,10 @@
         <v>785</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>307</v>
+        <v>174</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>2</v>
@@ -6208,18 +6194,20 @@
         <v>785</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>256</v>
+        <v>627</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="I48" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H48" s="7">
+        <v>2</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>803</v>
+      </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -6235,17 +6223,15 @@
         <v>785</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>826</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" s="7"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -6265,20 +6251,16 @@
         <v>635</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>636</v>
+        <v>256</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>828</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
@@ -6296,15 +6278,15 @@
         <v>635</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>636</v>
+        <v>255</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>821</v>
-      </c>
-      <c r="I51" s="7"/>
+        <v>824</v>
+      </c>
+      <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -6323,14 +6305,20 @@
         <v>635</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>303</v>
+        <v>636</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>826</v>
+      </c>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
@@ -6345,16 +6333,16 @@
         <v>785</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>558</v>
+        <v>636</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>818</v>
+        <v>4</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>849</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="11"/>
@@ -6371,16 +6359,16 @@
         <v>785</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H54" s="7"/>
-      <c r="I54" s="11"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
       <c r="L54" s="11"/>
@@ -6399,15 +6387,15 @@
         <v>555</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>256</v>
+        <v>558</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>822</v>
-      </c>
-      <c r="I55" s="11"/>
+        <v>817</v>
+      </c>
+      <c r="I55" s="7"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
       <c r="L55" s="11"/>
@@ -6415,7 +6403,7 @@
       <c r="N55" s="12"/>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="3:15" ht="14.25">
+    <row r="56" spans="3:15">
       <c r="C56" s="3">
         <v>55</v>
       </c>
@@ -6426,14 +6414,12 @@
         <v>555</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>527</v>
+        <v>183</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>823</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" s="7"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
@@ -6453,12 +6439,14 @@
         <v>555</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>556</v>
+        <v>256</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>820</v>
+      </c>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
@@ -6467,7 +6455,7 @@
       <c r="N57" s="12"/>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="3:15">
+    <row r="58" spans="3:15" ht="14.25">
       <c r="C58" s="3">
         <v>57</v>
       </c>
@@ -6478,12 +6466,14 @@
         <v>555</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>17</v>
+        <v>527</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H58" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>821</v>
+      </c>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
@@ -6500,10 +6490,10 @@
         <v>785</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>635</v>
+        <v>555</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>17</v>
+        <v>556</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>2</v>
@@ -6525,7 +6515,7 @@
         <v>785</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>626</v>
+        <v>555</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>17</v>
@@ -6547,15 +6537,17 @@
         <v>60</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>824</v>
+        <v>785</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="F61" s="11">
-        <v>2</v>
-      </c>
-      <c r="G61" s="11"/>
+        <v>635</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H61" s="7"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
@@ -6572,14 +6564,14 @@
       <c r="D62" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>277</v>
+      <c r="E62" s="11" t="s">
+        <v>626</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>17</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="11"/>
@@ -6595,17 +6587,15 @@
         <v>62</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>2</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="F63" s="11">
+        <v>2</v>
+      </c>
+      <c r="G63" s="11"/>
       <c r="H63" s="7"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
@@ -6622,18 +6612,16 @@
       <c r="D64" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E64" s="11" t="s">
-        <v>623</v>
+      <c r="E64" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>624</v>
+        <v>17</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>805</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H64" s="7"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
@@ -6649,11 +6637,11 @@
       <c r="D65" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E65" s="11" t="s">
-        <v>623</v>
+      <c r="E65" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>2</v>
@@ -6675,20 +6663,16 @@
         <v>785</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>627</v>
+        <v>99</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="H66" s="7">
-        <v>3</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>827</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
@@ -6700,29 +6684,25 @@
       <c r="C67" s="3">
         <v>66</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>626</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H67" s="7">
-        <v>3</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="12"/>
+      <c r="D67" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="8"/>
       <c r="O67" s="2"/>
     </row>
     <row r="68" spans="3:15">
@@ -6733,15 +6713,15 @@
         <v>785</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>626</v>
+        <v>19</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H68" s="7"/>
+      <c r="H68" s="11"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
@@ -6761,12 +6741,14 @@
         <v>623</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>99</v>
+        <v>624</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>805</v>
+      </c>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11"/>
@@ -6775,23 +6757,29 @@
       <c r="N69" s="12"/>
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="3:15" ht="15">
+    <row r="70" spans="3:15">
       <c r="C70" s="3">
         <v>69</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>784</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="D70" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="5"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="12"/>
       <c r="O70" s="2"/>
     </row>
     <row r="71" spans="3:15">
@@ -6801,17 +6789,21 @@
       <c r="D71" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>19</v>
+      <c r="E71" s="11" t="s">
+        <v>626</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>22</v>
+        <v>627</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="11"/>
+        <v>828</v>
+      </c>
+      <c r="H71" s="7">
+        <v>3</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>825</v>
+      </c>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
       <c r="L71" s="11"/>
@@ -6826,17 +6818,21 @@
       <c r="D72" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>19</v>
+      <c r="E72" s="11" t="s">
+        <v>626</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>81</v>
+        <v>627</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H72" s="7"/>
-      <c r="I72" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="H72" s="7">
+        <v>3</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>825</v>
+      </c>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
@@ -6851,19 +6847,17 @@
       <c r="D73" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>241</v>
+      <c r="E73" s="11" t="s">
+        <v>626</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>807</v>
-      </c>
-      <c r="I73" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="H73" s="7"/>
+      <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
       <c r="L73" s="11"/>
@@ -6878,11 +6872,11 @@
       <c r="D74" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>241</v>
+      <c r="E74" s="11" t="s">
+        <v>623</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>2</v>
@@ -6896,31 +6890,23 @@
       <c r="N74" s="12"/>
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="3:15">
+    <row r="75" spans="3:15" ht="15">
       <c r="C75" s="3">
         <v>74</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>811</v>
-      </c>
+      <c r="D75" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="7"/>
       <c r="I75" s="7"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="12"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="5"/>
       <c r="O75" s="2"/>
     </row>
     <row r="76" spans="3:15">
@@ -6931,16 +6917,16 @@
         <v>785</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
+      <c r="I76" s="11"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
@@ -6953,17 +6939,19 @@
         <v>76</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>809</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="F77" s="11">
-        <v>5</v>
-      </c>
-      <c r="G77" s="11"/>
+        <v>785</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
@@ -6978,16 +6966,18 @@
       <c r="D78" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>277</v>
+      <c r="E78" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H78" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>807</v>
+      </c>
       <c r="I78" s="7"/>
       <c r="J78" s="11"/>
       <c r="K78" s="11"/>
@@ -7007,110 +6997,111 @@
         <v>241</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
+      <c r="I79" s="11"/>
       <c r="J79" s="11"/>
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
       <c r="N79" s="12"/>
+      <c r="O79" s="2"/>
     </row>
     <row r="80" spans="3:15">
       <c r="C80" s="3">
         <v>79</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="F80" s="3">
-        <v>2</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H80" s="7"/>
+      <c r="D80" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>811</v>
+      </c>
       <c r="I80" s="7"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="8"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="3:14">
+    <row r="81" spans="3:15">
       <c r="C81" s="3">
         <v>80</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>788</v>
+      <c r="D81" s="10" t="s">
+        <v>785</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="8"/>
+        <v>254</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="3:14">
+    <row r="82" spans="3:15">
       <c r="C82" s="3">
         <v>81</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
+        <v>809</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="F82" s="11">
+        <v>5</v>
+      </c>
+      <c r="G82" s="11"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11"/>
       <c r="L82" s="11"/>
       <c r="M82" s="11"/>
       <c r="N82" s="12"/>
     </row>
-    <row r="83" spans="3:14">
+    <row r="83" spans="3:15">
       <c r="C83" s="3">
         <v>82</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E83" s="11" t="s">
-        <v>623</v>
+      <c r="E83" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>624</v>
+        <v>17</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>805</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
@@ -7118,66 +7109,62 @@
       <c r="M83" s="11"/>
       <c r="N83" s="12"/>
     </row>
-    <row r="84" spans="3:14">
+    <row r="84" spans="3:15">
       <c r="C84" s="3">
         <v>83</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E84" s="11" t="s">
-        <v>623</v>
+      <c r="E84" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>2</v>
       </c>
       <c r="H84" s="7"/>
-      <c r="I84" s="11"/>
+      <c r="I84" s="7"/>
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
       <c r="M84" s="11"/>
       <c r="N84" s="12"/>
     </row>
-    <row r="85" spans="3:14">
+    <row r="85" spans="3:15">
       <c r="C85" s="3">
         <v>84</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>623</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="7">
-        <v>2</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="12"/>
+      <c r="D85" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="8"/>
     </row>
-    <row r="86" spans="3:14">
+    <row r="86" spans="3:15">
       <c r="C86" s="3">
         <v>85</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="E86" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -7186,124 +7173,128 @@
       <c r="G86" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="8"/>
     </row>
-    <row r="87" spans="3:14">
+    <row r="87" spans="3:15">
       <c r="C87" s="3">
         <v>86</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="8"/>
+      <c r="F87" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="12"/>
     </row>
-    <row r="88" spans="3:14">
+    <row r="88" spans="3:15">
       <c r="C88" s="3">
         <v>87</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="8"/>
+      <c r="D88" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="I88" s="7"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="12"/>
     </row>
-    <row r="89" spans="3:14" ht="14.25">
+    <row r="89" spans="3:15">
       <c r="C89" s="3">
         <v>88</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="D89" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F89" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H89" s="13"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="8"/>
+      <c r="G89" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="7"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="12"/>
     </row>
-    <row r="90" spans="3:14">
+    <row r="90" spans="3:15">
       <c r="C90" s="3">
         <v>89</v>
       </c>
-      <c r="D90" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H90" s="7"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="8"/>
+      <c r="D90" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="7">
+        <v>2</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="12"/>
     </row>
-    <row r="91" spans="3:14">
+    <row r="91" spans="3:15">
       <c r="C91" s="3">
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>813</v>
+        <v>19</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>2</v>
@@ -7316,93 +7307,215 @@
       <c r="M91" s="3"/>
       <c r="N91" s="8"/>
     </row>
-    <row r="92" spans="3:14">
+    <row r="92" spans="3:15">
       <c r="C92" s="3">
         <v>91</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>844</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>845</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="G92" s="7"/>
+      <c r="D92" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="9"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="8"/>
     </row>
-    <row r="93" spans="3:14">
+    <row r="93" spans="3:15">
       <c r="C93" s="3">
         <v>92</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="8"/>
+    </row>
+    <row r="94" spans="3:15" ht="14.25">
+      <c r="C94" s="3">
+        <v>93</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94" s="13"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="8"/>
+    </row>
+    <row r="95" spans="3:15">
+      <c r="C95" s="3">
+        <v>94</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="7"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="8"/>
+    </row>
+    <row r="96" spans="3:15">
+      <c r="C96" s="3">
+        <v>95</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="8"/>
+    </row>
+    <row r="97" spans="3:14">
+      <c r="C97" s="3">
+        <v>96</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="F97" s="11" t="s">
         <v>844</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="9"/>
+    </row>
+    <row r="98" spans="3:14">
+      <c r="C98" s="3">
+        <v>97</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="F98" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="9"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N91">
-    <cfRule type="cellIs" dxfId="15" priority="69" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N96">
+    <cfRule type="cellIs" dxfId="13" priority="69" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="70" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N86:N91">
-    <cfRule type="cellIs" dxfId="13" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N91:N96">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N86:N91">
-    <cfRule type="cellIs" dxfId="11" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N91:N96">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N86:N91">
-    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N91:N96">
+    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N92">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N97">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N93">
+  <conditionalFormatting sqref="N98">
     <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7411,22 +7524,22 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G89:G91 G2:G87">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G94:G96 G2:G92">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D71:D79 D81:D87 D10:D30 D3:D4 D32:D40 D42:D69 D92:D93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D76:D84 D86:D92 D12:D32 D34:D42 D3:D6 D97:D98 D44:D74">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110 E2:E98">
+      <formula1>Forms</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F5:F96">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E93 B107">
-      <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H22" r:id="rId1"/>
-    <hyperlink ref="H56" r:id="rId2"/>
+    <hyperlink ref="H24" r:id="rId1"/>
+    <hyperlink ref="H58" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/NformTester/NformTester/Keywordscripts/600.30.30.50_CopyAnExistingAreaAndCreateNewAreaInTheTreeOfView.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.30.30.50_CopyAnExistingAreaAndCreateNewAreaInTheTreeOfView.xlsx
@@ -3612,14 +3612,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>$SNMP_GXT_1$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3827,6 +3819,14 @@
   </si>
   <si>
     <t>$Sys_Image_File_Name_2$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4077,21 +4077,7 @@
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -4888,8 +4874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4907,10 +4893,10 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>757</v>
@@ -4952,10 +4938,10 @@
     </row>
     <row r="2" spans="1:15" ht="15">
       <c r="A2" s="16" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -4977,22 +4963,22 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="16" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -5006,22 +4992,22 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="16" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -5035,7 +5021,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="16" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B5" s="20">
         <v>41754</v>
@@ -5070,16 +5056,16 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="16" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>18</v>
@@ -5110,7 +5096,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -5126,14 +5112,14 @@
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -5149,7 +5135,7 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="16" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="3">
@@ -5193,20 +5179,20 @@
       <c r="H10" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>798</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="2"/>
@@ -5218,7 +5204,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -5340,7 +5326,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -5371,7 +5357,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -5431,7 +5417,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="11"/>
@@ -5462,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -5495,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -5580,7 +5566,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -5607,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -5708,8 +5694,8 @@
       <c r="G28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>795</v>
+      <c r="H28" s="11" t="s">
+        <v>849</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -5824,7 +5810,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="11"/>
@@ -5905,7 +5891,7 @@
         <v>56</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="11"/>
@@ -5957,7 +5943,7 @@
         <v>13</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="11"/>
@@ -5997,10 +5983,10 @@
         <v>39</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F40" s="11">
         <v>5</v>
@@ -6070,7 +6056,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="11"/>
@@ -6151,7 +6137,7 @@
         <v>56</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="11"/>
@@ -6206,7 +6192,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
@@ -6257,7 +6243,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
@@ -6284,7 +6270,7 @@
         <v>4</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -6311,13 +6297,13 @@
         <v>7</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
@@ -6342,7 +6328,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="11"/>
@@ -6393,7 +6379,7 @@
         <v>59</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="11"/>
@@ -6445,7 +6431,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
@@ -6472,7 +6458,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="14" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
@@ -6587,10 +6573,10 @@
         <v>62</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F63" s="11">
         <v>2</v>
@@ -6747,7 +6733,7 @@
         <v>56</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
@@ -6796,13 +6782,13 @@
         <v>627</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="H71" s="7">
         <v>3</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
@@ -6831,7 +6817,7 @@
         <v>3</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
@@ -6976,7 +6962,7 @@
         <v>56</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="11"/>
@@ -7028,7 +7014,7 @@
         <v>13</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="11"/>
@@ -7068,10 +7054,10 @@
         <v>81</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F82" s="11">
         <v>5</v>
@@ -7138,10 +7124,10 @@
         <v>84</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F85" s="3">
         <v>2</v>
@@ -7222,7 +7208,7 @@
         <v>56</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="11"/>
@@ -7275,7 +7261,7 @@
         <v>2</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="J90" s="11"/>
       <c r="K90" s="11"/>
@@ -7336,10 +7322,10 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>578</v>
@@ -7348,7 +7334,7 @@
         <v>3</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
@@ -7362,10 +7348,10 @@
         <v>93</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>184</v>
@@ -7386,7 +7372,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>585</v>
@@ -7410,10 +7396,10 @@
         <v>95</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>99</v>
@@ -7434,13 +7420,13 @@
         <v>96</v>
       </c>
       <c r="D97" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="F97" s="11" t="s">
         <v>842</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>844</v>
       </c>
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
@@ -7456,13 +7442,13 @@
         <v>97</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E98" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="F98" s="11" t="s">
         <v>843</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>845</v>
       </c>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
@@ -7476,50 +7462,50 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N96">
-    <cfRule type="cellIs" dxfId="13" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="69" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="70" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N91:N96">
-    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N91:N96">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N91:N96">
-    <cfRule type="cellIs" dxfId="7" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N97">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N98">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
